--- a/result.xlsx
+++ b/result.xlsx
@@ -25,9 +25,39 @@
     <t>freq</t>
   </si>
   <si>
+    <t>革命</t>
+  </si>
+  <si>
+    <t>工作</t>
+  </si>
+  <si>
+    <t>思想</t>
+  </si>
+  <si>
+    <t>社会</t>
+  </si>
+  <si>
     <t>矛盾</t>
   </si>
   <si>
+    <t>同志</t>
+  </si>
+  <si>
+    <t>解决</t>
+  </si>
+  <si>
+    <t>群众</t>
+  </si>
+  <si>
+    <t>政治</t>
+  </si>
+  <si>
+    <t>敌人</t>
+  </si>
+  <si>
+    <t>战争</t>
+  </si>
+  <si>
     <t>方法</t>
   </si>
   <si>
@@ -37,52 +67,22 @@
     <t>领导</t>
   </si>
   <si>
+    <t>军队</t>
+  </si>
+  <si>
+    <t>党</t>
+  </si>
+  <si>
+    <t>错误</t>
+  </si>
+  <si>
+    <t>正确</t>
+  </si>
+  <si>
+    <t>团结</t>
+  </si>
+  <si>
     <t>国家</t>
-  </si>
-  <si>
-    <t>社会</t>
-  </si>
-  <si>
-    <t>同志</t>
-  </si>
-  <si>
-    <t>解决</t>
-  </si>
-  <si>
-    <t>群众</t>
-  </si>
-  <si>
-    <t>政治</t>
-  </si>
-  <si>
-    <t>敌人</t>
-  </si>
-  <si>
-    <t>党</t>
-  </si>
-  <si>
-    <t>错误</t>
-  </si>
-  <si>
-    <t>正确</t>
-  </si>
-  <si>
-    <t>思想</t>
-  </si>
-  <si>
-    <t>团结</t>
-  </si>
-  <si>
-    <t>革命</t>
-  </si>
-  <si>
-    <t>工作</t>
-  </si>
-  <si>
-    <t>战争</t>
-  </si>
-  <si>
-    <t>军队</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>0.02409638554216868</v>
+        <v>0.04260946223920071</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -482,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>0.02057008521892448</v>
+        <v>0.03996473699676756</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -490,13 +490,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4">
-        <v>0.01939465177784308</v>
+        <v>0.01645606817513958</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -504,13 +504,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5">
-        <v>0.01851307669703203</v>
+        <v>0.01498677637378783</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -524,7 +524,7 @@
         <v>7</v>
       </c>
       <c r="D6">
-        <v>0.01498677637378783</v>
+        <v>0.02409638554216868</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -538,7 +538,7 @@
         <v>8</v>
       </c>
       <c r="D7">
-        <v>0.01498677637378783</v>
+        <v>0.01469291801351748</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -552,7 +552,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>0.01469291801351748</v>
+        <v>0.01439905965324714</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -560,13 +560,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9">
-        <v>0.01439905965324714</v>
+        <v>0.03908316191595651</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -580,7 +580,7 @@
         <v>11</v>
       </c>
       <c r="D10">
-        <v>0.03908316191595651</v>
+        <v>0.02409638554216868</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -594,7 +594,7 @@
         <v>12</v>
       </c>
       <c r="D11">
-        <v>0.02409638554216868</v>
+        <v>0.02350866882162797</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -608,7 +608,7 @@
         <v>13</v>
       </c>
       <c r="D12">
-        <v>0.02350866882162797</v>
+        <v>0.02145166029973553</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -622,7 +622,7 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>0.01704378489568028</v>
+        <v>0.02057008521892448</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -636,7 +636,7 @@
         <v>15</v>
       </c>
       <c r="D14">
-        <v>0.01674992653540993</v>
+        <v>0.01939465177784308</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -650,7 +650,7 @@
         <v>16</v>
       </c>
       <c r="D15">
-        <v>0.01528063473405818</v>
+        <v>0.01851307669703203</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -658,13 +658,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16">
-        <v>0.01645606817513958</v>
+        <v>0.01763150161622098</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -672,13 +672,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
       <c r="D17">
-        <v>0.01586835145459888</v>
+        <v>0.01704378489568028</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -686,13 +686,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
       </c>
       <c r="D18">
-        <v>0.04260946223920071</v>
+        <v>0.01674992653540993</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -700,13 +700,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
       </c>
       <c r="D19">
-        <v>0.03996473699676756</v>
+        <v>0.01528063473405818</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -720,7 +720,7 @@
         <v>21</v>
       </c>
       <c r="D20">
-        <v>0.02145166029973553</v>
+        <v>0.01586835145459888</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -734,7 +734,7 @@
         <v>22</v>
       </c>
       <c r="D21">
-        <v>0.01763150161622098</v>
+        <v>0.01498677637378783</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t>class</t>
   </si>
@@ -28,61 +28,406 @@
     <t>革命</t>
   </si>
   <si>
+    <t>军队</t>
+  </si>
+  <si>
+    <t>作风</t>
+  </si>
+  <si>
+    <t>运动</t>
+  </si>
+  <si>
+    <t>教育</t>
+  </si>
+  <si>
+    <t>过程</t>
+  </si>
+  <si>
+    <t>农民</t>
+  </si>
+  <si>
+    <t>修正主义</t>
+  </si>
+  <si>
+    <t>一种</t>
+  </si>
+  <si>
+    <t>团结</t>
+  </si>
+  <si>
+    <t>一点</t>
+  </si>
+  <si>
+    <t>工人阶级</t>
+  </si>
+  <si>
+    <t>战争</t>
+  </si>
+  <si>
+    <t>地位</t>
+  </si>
+  <si>
+    <t>执行</t>
+  </si>
+  <si>
+    <t>打仗</t>
+  </si>
+  <si>
+    <t>地方</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>困难</t>
+  </si>
+  <si>
+    <t>调查</t>
+  </si>
+  <si>
+    <t>破坏</t>
+  </si>
+  <si>
+    <t>党内</t>
+  </si>
+  <si>
+    <t>青年</t>
+  </si>
+  <si>
+    <t>纪律</t>
+  </si>
+  <si>
+    <t>错误</t>
+  </si>
+  <si>
+    <t>我国</t>
+  </si>
+  <si>
+    <t>阶段</t>
+  </si>
+  <si>
+    <t>反革命</t>
+  </si>
+  <si>
+    <t>表现</t>
+  </si>
+  <si>
+    <t>分析</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>群众</t>
+  </si>
+  <si>
+    <t>发生</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>政策</t>
+  </si>
+  <si>
+    <t>经验</t>
+  </si>
+  <si>
+    <t>历史</t>
+  </si>
+  <si>
+    <t>东西</t>
+  </si>
+  <si>
+    <t>国家</t>
+  </si>
+  <si>
     <t>工作</t>
   </si>
   <si>
+    <t>出发</t>
+  </si>
+  <si>
+    <t>服务</t>
+  </si>
+  <si>
+    <t>中国共产党</t>
+  </si>
+  <si>
+    <t>力量</t>
+  </si>
+  <si>
+    <t>基础</t>
+  </si>
+  <si>
+    <t>马克思列宁主义</t>
+  </si>
+  <si>
+    <t>胜利</t>
+  </si>
+  <si>
+    <t>事情</t>
+  </si>
+  <si>
+    <t>正确</t>
+  </si>
+  <si>
+    <t>实践</t>
+  </si>
+  <si>
+    <t>消灭</t>
+  </si>
+  <si>
+    <t>敌人</t>
+  </si>
+  <si>
+    <t>之间</t>
+  </si>
+  <si>
+    <t>资本主义</t>
+  </si>
+  <si>
+    <t>解决</t>
+  </si>
+  <si>
     <t>思想</t>
   </si>
   <si>
+    <t>共产党人</t>
+  </si>
+  <si>
+    <t>参加</t>
+  </si>
+  <si>
+    <t>事物</t>
+  </si>
+  <si>
+    <t>共产党</t>
+  </si>
+  <si>
+    <t>态度</t>
+  </si>
+  <si>
+    <t>民众</t>
+  </si>
+  <si>
+    <t>原则</t>
+  </si>
+  <si>
+    <t>积极性</t>
+  </si>
+  <si>
+    <t>时期</t>
+  </si>
+  <si>
+    <t>生产</t>
+  </si>
+  <si>
+    <t>计划</t>
+  </si>
+  <si>
+    <t>艺术</t>
+  </si>
+  <si>
+    <t>理论</t>
+  </si>
+  <si>
+    <t>实行</t>
+  </si>
+  <si>
+    <t>阶级</t>
+  </si>
+  <si>
+    <t>阶级斗争</t>
+  </si>
+  <si>
+    <t>观点</t>
+  </si>
+  <si>
+    <t>矛盾</t>
+  </si>
+  <si>
+    <t>民族</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>建立</t>
+  </si>
+  <si>
+    <t>情况</t>
+  </si>
+  <si>
+    <t>发展</t>
+  </si>
+  <si>
+    <t>善于</t>
+  </si>
+  <si>
+    <t>机关</t>
+  </si>
+  <si>
+    <t>士兵</t>
+  </si>
+  <si>
+    <t>自由</t>
+  </si>
+  <si>
+    <t>客观</t>
+  </si>
+  <si>
+    <t>服从</t>
+  </si>
+  <si>
+    <t>马克思主义</t>
+  </si>
+  <si>
+    <t>改造</t>
+  </si>
+  <si>
+    <t>世界</t>
+  </si>
+  <si>
+    <t>解放</t>
+  </si>
+  <si>
+    <t>目的</t>
+  </si>
+  <si>
+    <t>反动派</t>
+  </si>
+  <si>
+    <t>只能</t>
+  </si>
+  <si>
+    <t>军事</t>
+  </si>
+  <si>
+    <t>批评</t>
+  </si>
+  <si>
+    <t>生活</t>
+  </si>
+  <si>
+    <t>经济</t>
+  </si>
+  <si>
+    <t>知识分子</t>
+  </si>
+  <si>
+    <t>资产阶级</t>
+  </si>
+  <si>
+    <t>制度</t>
+  </si>
+  <si>
+    <t>内部</t>
+  </si>
+  <si>
+    <t>和平</t>
+  </si>
+  <si>
+    <t>劳动</t>
+  </si>
+  <si>
+    <t>一部分</t>
+  </si>
+  <si>
+    <t>干部</t>
+  </si>
+  <si>
+    <t>事业</t>
+  </si>
+  <si>
+    <t>性质</t>
+  </si>
+  <si>
+    <t>政治</t>
+  </si>
+  <si>
+    <t>关系</t>
+  </si>
+  <si>
+    <t>成绩</t>
+  </si>
+  <si>
+    <t>领导</t>
+  </si>
+  <si>
+    <t>党员</t>
+  </si>
+  <si>
+    <t>组织</t>
+  </si>
+  <si>
+    <t>办法</t>
+  </si>
+  <si>
+    <t>反对</t>
+  </si>
+  <si>
+    <t>无产阶级</t>
+  </si>
+  <si>
+    <t>斗争</t>
+  </si>
+  <si>
     <t>社会</t>
   </si>
   <si>
-    <t>矛盾</t>
+    <t>农业</t>
+  </si>
+  <si>
+    <t>条件</t>
+  </si>
+  <si>
+    <t>方法</t>
+  </si>
+  <si>
+    <t>建设</t>
+  </si>
+  <si>
+    <t>标准</t>
+  </si>
+  <si>
+    <t>意见</t>
+  </si>
+  <si>
+    <t>民主</t>
+  </si>
+  <si>
+    <t>精神</t>
+  </si>
+  <si>
+    <t>全世界</t>
+  </si>
+  <si>
+    <t>利益</t>
+  </si>
+  <si>
+    <t>研究</t>
   </si>
   <si>
     <t>同志</t>
   </si>
   <si>
-    <t>解决</t>
-  </si>
-  <si>
-    <t>群众</t>
-  </si>
-  <si>
-    <t>政治</t>
-  </si>
-  <si>
-    <t>敌人</t>
-  </si>
-  <si>
-    <t>战争</t>
-  </si>
-  <si>
-    <t>方法</t>
-  </si>
-  <si>
-    <t>斗争</t>
-  </si>
-  <si>
-    <t>领导</t>
-  </si>
-  <si>
-    <t>军队</t>
-  </si>
-  <si>
-    <t>党</t>
-  </si>
-  <si>
-    <t>错误</t>
-  </si>
-  <si>
-    <t>正确</t>
-  </si>
-  <si>
-    <t>团结</t>
-  </si>
-  <si>
-    <t>国家</t>
+    <t>共产党员</t>
+  </si>
+  <si>
+    <t>缺点</t>
+  </si>
+  <si>
+    <t>两个</t>
+  </si>
+  <si>
+    <t>懂得</t>
+  </si>
+  <si>
+    <t>学习</t>
   </si>
 </sst>
 </file>
@@ -440,7 +785,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>0.04260946223920071</v>
+        <v>0.01164471570831995</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -482,7 +827,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>0.03996473699676756</v>
+        <v>0.004818503051718599</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -496,7 +841,7 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>0.01645606817513958</v>
+        <v>0.00104400899453903</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -510,7 +855,7 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>0.01498677637378783</v>
+        <v>0.002489559910054609</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -518,13 +863,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6">
-        <v>0.02409638554216868</v>
+        <v>0.00136524253132027</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -532,13 +877,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7">
-        <v>0.01469291801351748</v>
+        <v>0.00128493414712496</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -546,13 +891,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8">
-        <v>0.01439905965324714</v>
+        <v>0.00208801798907806</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -560,13 +905,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9">
-        <v>0.03908316191595651</v>
+        <v>0.00112431737873434</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -574,13 +919,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10">
-        <v>0.02409638554216868</v>
+        <v>0.00224863475746868</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -588,13 +933,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11">
-        <v>0.02350866882162797</v>
+        <v>0.004336652746546739</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -602,13 +947,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12">
-        <v>0.02145166029973553</v>
+        <v>0.00168647606810151</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -616,13 +961,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13">
-        <v>0.02057008521892448</v>
+        <v>0.0016061676839062</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -630,13 +975,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14">
-        <v>0.01939465177784308</v>
+        <v>0.005862512046257629</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -644,13 +989,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="D15">
-        <v>0.01851307669703203</v>
+        <v>0.00128493414712496</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -658,13 +1003,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16">
-        <v>0.01763150161622098</v>
+        <v>0.00120462576292965</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -672,13 +1017,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
       <c r="D17">
-        <v>0.01704378489568028</v>
+        <v>0.00104400899453903</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -686,13 +1031,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
       </c>
       <c r="D18">
-        <v>0.01674992653540993</v>
+        <v>0.00168647606810151</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -700,13 +1045,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
       </c>
       <c r="D19">
-        <v>0.01528063473405818</v>
+        <v>0.00104400899453903</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -714,13 +1059,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
       </c>
       <c r="D20">
-        <v>0.01586835145459888</v>
+        <v>0.00152585929971089</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -728,13 +1073,1623 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
       <c r="D21">
-        <v>0.01498677637378783</v>
+        <v>0.00208801798907806</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22">
+        <v>0.00144555091551558</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>0.00104400899453903</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>0.00136524253132027</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>0.00128493414712496</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26">
+        <v>0.00144555091551558</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27">
+        <v>0.00457757789913267</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28">
+        <v>0.00200770960488275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29">
+        <v>0.00104400899453903</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30">
+        <v>0.00112431737873434</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31">
+        <v>0.00112431737873434</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32">
+        <v>0.0016061676839062</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33">
+        <v>0.00104400899453903</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34">
+        <v>0.01068101509797623</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35">
+        <v>0.00112431737873434</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36">
+        <v>0.00120462576292965</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37">
+        <v>0.00273048506264054</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38">
+        <v>0.00152585929971089</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39">
+        <v>0.00232894314166399</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40">
+        <v>0.00192740122068744</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41">
+        <v>0.00409572759396081</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42">
+        <v>0.01092194025056216</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43">
+        <v>0.00120462576292965</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44">
+        <v>0.00104400899453903</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45">
+        <v>0.00104400899453903</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46">
+        <v>0.00224863475746868</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47">
+        <v>0.00136524253132027</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48">
+        <v>0.0016061676839062</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49">
+        <v>0.00329264375200771</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50">
+        <v>0.00176678445229682</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51">
+        <v>0.004176035978156119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52">
+        <v>0.00192740122068744</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53">
+        <v>0.00337295213620302</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54">
+        <v>0.006424670735624799</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55">
+        <v>0.00305171859942178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56">
+        <v>0.00168647606810151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57">
+        <v>0.00393511082557019</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58">
+        <v>0.004497269514937359</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59">
+        <v>0.00112431737873434</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60">
+        <v>0.00136524253132027</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61">
+        <v>0.00289110183103116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62">
+        <v>0.0016061676839062</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63">
+        <v>0.00232894314166399</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>65</v>
+      </c>
+      <c r="D64">
+        <v>0.00104400899453903</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>66</v>
+      </c>
+      <c r="D65">
+        <v>0.00273048506264054</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>67</v>
+      </c>
+      <c r="D66">
+        <v>0.00144555091551558</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67">
+        <v>0.0016061676839062</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>69</v>
+      </c>
+      <c r="D68">
+        <v>0.00297141021522647</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>70</v>
+      </c>
+      <c r="D69">
+        <v>0.00104400899453903</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70">
+        <v>0.00176678445229682</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71">
+        <v>0.00224863475746868</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72" t="s">
+        <v>73</v>
+      </c>
+      <c r="D72">
+        <v>0.00305171859942178</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73" t="s">
+        <v>74</v>
+      </c>
+      <c r="D73">
+        <v>0.00337295213620302</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="C74" t="s">
+        <v>75</v>
+      </c>
+      <c r="D74">
+        <v>0.00128493414712496</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>76</v>
+      </c>
+      <c r="D75">
+        <v>0.00144555091551558</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="C76" t="s">
+        <v>77</v>
+      </c>
+      <c r="D76">
+        <v>0.006585287504015419</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>78</v>
+      </c>
+      <c r="D77">
+        <v>0.00232894314166399</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>79</v>
+      </c>
+      <c r="D78">
+        <v>0.00120462576292965</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>80</v>
+      </c>
+      <c r="D79">
+        <v>0.0016061676839062</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>4</v>
+      </c>
+      <c r="C80" t="s">
+        <v>81</v>
+      </c>
+      <c r="D80">
+        <v>0.00305171859942178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>4</v>
+      </c>
+      <c r="C81" t="s">
+        <v>82</v>
+      </c>
+      <c r="D81">
+        <v>0.003854802441374879</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82" t="s">
+        <v>83</v>
+      </c>
+      <c r="D82">
+        <v>0.00184709283649213</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>4</v>
+      </c>
+      <c r="C83" t="s">
+        <v>84</v>
+      </c>
+      <c r="D83">
+        <v>0.00152585929971089</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84" t="s">
+        <v>85</v>
+      </c>
+      <c r="D84">
+        <v>0.00128493414712496</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+      <c r="C85" t="s">
+        <v>86</v>
+      </c>
+      <c r="D85">
+        <v>0.00120462576292965</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>4</v>
+      </c>
+      <c r="C86" t="s">
+        <v>87</v>
+      </c>
+      <c r="D86">
+        <v>0.00120462576292965</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>4</v>
+      </c>
+      <c r="C87" t="s">
+        <v>88</v>
+      </c>
+      <c r="D87">
+        <v>0.00120462576292965</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>89</v>
+      </c>
+      <c r="D88">
+        <v>0.00289110183103116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>90</v>
+      </c>
+      <c r="D89">
+        <v>0.0024092515258593</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>91</v>
+      </c>
+      <c r="D90">
+        <v>0.00265017667844523</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>92</v>
+      </c>
+      <c r="D91">
+        <v>0.00120462576292965</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>93</v>
+      </c>
+      <c r="D92">
+        <v>0.00144555091551558</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>94</v>
+      </c>
+      <c r="D93">
+        <v>0.00232894314166399</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>95</v>
+      </c>
+      <c r="D94">
+        <v>0.00104400899453903</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>96</v>
+      </c>
+      <c r="D95">
+        <v>0.00104400899453903</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>97</v>
+      </c>
+      <c r="D96">
+        <v>0.00305171859942178</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>98</v>
+      </c>
+      <c r="D97">
+        <v>0.00232894314166399</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>99</v>
+      </c>
+      <c r="D98">
+        <v>0.00128493414712496</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>100</v>
+      </c>
+      <c r="D99">
+        <v>0.00120462576292965</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>6</v>
+      </c>
+      <c r="C100" t="s">
+        <v>101</v>
+      </c>
+      <c r="D100">
+        <v>0.00329264375200771</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>6</v>
+      </c>
+      <c r="C101" t="s">
+        <v>102</v>
+      </c>
+      <c r="D101">
+        <v>0.00208801798907806</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>6</v>
+      </c>
+      <c r="C102" t="s">
+        <v>103</v>
+      </c>
+      <c r="D102">
+        <v>0.00305171859942178</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>6</v>
+      </c>
+      <c r="C103" t="s">
+        <v>104</v>
+      </c>
+      <c r="D103">
+        <v>0.00112431737873434</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>6</v>
+      </c>
+      <c r="C104" t="s">
+        <v>105</v>
+      </c>
+      <c r="D104">
+        <v>0.00208801798907806</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>6</v>
+      </c>
+      <c r="C105" t="s">
+        <v>106</v>
+      </c>
+      <c r="D105">
+        <v>0.00104400899453903</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>6</v>
+      </c>
+      <c r="C106" t="s">
+        <v>107</v>
+      </c>
+      <c r="D106">
+        <v>0.003774494057179569</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>108</v>
+      </c>
+      <c r="D107">
+        <v>0.00216832637327337</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>109</v>
+      </c>
+      <c r="D108">
+        <v>0.00112431737873434</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
+        <v>110</v>
+      </c>
+      <c r="D109">
+        <v>0.006585287504015419</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
+        <v>111</v>
+      </c>
+      <c r="D110">
+        <v>0.00152585929971089</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
+        <v>112</v>
+      </c>
+      <c r="D111">
+        <v>0.00152585929971089</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>8</v>
+      </c>
+      <c r="C112" t="s">
+        <v>113</v>
+      </c>
+      <c r="D112">
+        <v>0.005059428204304529</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s">
+        <v>114</v>
+      </c>
+      <c r="D113">
+        <v>0.00112431737873434</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>8</v>
+      </c>
+      <c r="C114" t="s">
+        <v>115</v>
+      </c>
+      <c r="D114">
+        <v>0.00256986829424992</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>8</v>
+      </c>
+      <c r="C115" t="s">
+        <v>116</v>
+      </c>
+      <c r="D115">
+        <v>0.00168647606810151</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>8</v>
+      </c>
+      <c r="C116" t="s">
+        <v>117</v>
+      </c>
+      <c r="D116">
+        <v>0.0032123353678124</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>8</v>
+      </c>
+      <c r="C117" t="s">
+        <v>118</v>
+      </c>
+      <c r="D117">
+        <v>0.00232894314166399</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>8</v>
+      </c>
+      <c r="C118" t="s">
+        <v>119</v>
+      </c>
+      <c r="D118">
+        <v>0.00530035335689046</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>8</v>
+      </c>
+      <c r="C119" t="s">
+        <v>120</v>
+      </c>
+      <c r="D119">
+        <v>0.00409572759396081</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>8</v>
+      </c>
+      <c r="C120" t="s">
+        <v>121</v>
+      </c>
+      <c r="D120">
+        <v>0.00128493414712496</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>8</v>
+      </c>
+      <c r="C121" t="s">
+        <v>122</v>
+      </c>
+      <c r="D121">
+        <v>0.00152585929971089</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>8</v>
+      </c>
+      <c r="C122" t="s">
+        <v>123</v>
+      </c>
+      <c r="D122">
+        <v>0.0056215868936717</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>8</v>
+      </c>
+      <c r="C123" t="s">
+        <v>124</v>
+      </c>
+      <c r="D123">
+        <v>0.00184709283649213</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>8</v>
+      </c>
+      <c r="C124" t="s">
+        <v>125</v>
+      </c>
+      <c r="D124">
+        <v>0.00136524253132027</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>8</v>
+      </c>
+      <c r="C125" t="s">
+        <v>126</v>
+      </c>
+      <c r="D125">
+        <v>0.00208801798907806</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>8</v>
+      </c>
+      <c r="C126" t="s">
+        <v>127</v>
+      </c>
+      <c r="D126">
+        <v>0.00232894314166399</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>8</v>
+      </c>
+      <c r="C127" t="s">
+        <v>128</v>
+      </c>
+      <c r="D127">
+        <v>0.00208801798907806</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>8</v>
+      </c>
+      <c r="C128" t="s">
+        <v>129</v>
+      </c>
+      <c r="D128">
+        <v>0.00136524253132027</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>8</v>
+      </c>
+      <c r="C129" t="s">
+        <v>130</v>
+      </c>
+      <c r="D129">
+        <v>0.00265017667844523</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>8</v>
+      </c>
+      <c r="C130" t="s">
+        <v>131</v>
+      </c>
+      <c r="D130">
+        <v>0.00120462576292965</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>8</v>
+      </c>
+      <c r="C131" t="s">
+        <v>132</v>
+      </c>
+      <c r="D131">
+        <v>0.004015419209765499</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>8</v>
+      </c>
+      <c r="C132" t="s">
+        <v>133</v>
+      </c>
+      <c r="D132">
+        <v>0.00256986829424992</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>8</v>
+      </c>
+      <c r="C133" t="s">
+        <v>134</v>
+      </c>
+      <c r="D133">
+        <v>0.00128493414712496</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>9</v>
+      </c>
+      <c r="C134" t="s">
+        <v>135</v>
+      </c>
+      <c r="D134">
+        <v>0.00144555091551558</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>9</v>
+      </c>
+      <c r="C135" t="s">
+        <v>136</v>
+      </c>
+      <c r="D135">
+        <v>0.00176678445229682</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>9</v>
+      </c>
+      <c r="C136" t="s">
+        <v>137</v>
+      </c>
+      <c r="D136">
+        <v>0.00281079344683585</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -28,406 +28,406 @@
     <t>革命</t>
   </si>
   <si>
+    <t>胜利</t>
+  </si>
+  <si>
+    <t>实行</t>
+  </si>
+  <si>
+    <t>过程</t>
+  </si>
+  <si>
+    <t>民族</t>
+  </si>
+  <si>
+    <t>改造</t>
+  </si>
+  <si>
+    <t>解放</t>
+  </si>
+  <si>
+    <t>精神</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>利益</t>
+  </si>
+  <si>
+    <t>执行</t>
+  </si>
+  <si>
+    <t>青年</t>
+  </si>
+  <si>
+    <t>历史</t>
+  </si>
+  <si>
+    <t>资本主义</t>
+  </si>
+  <si>
+    <t>发展</t>
+  </si>
+  <si>
+    <t>国家</t>
+  </si>
+  <si>
+    <t>反动派</t>
+  </si>
+  <si>
+    <t>全世界</t>
+  </si>
+  <si>
+    <t>机关</t>
+  </si>
+  <si>
+    <t>服从</t>
+  </si>
+  <si>
+    <t>破坏</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>教育</t>
+  </si>
+  <si>
+    <t>无产阶级</t>
+  </si>
+  <si>
+    <t>错误</t>
+  </si>
+  <si>
+    <t>之间</t>
+  </si>
+  <si>
+    <t>情况</t>
+  </si>
+  <si>
+    <t>一种</t>
+  </si>
+  <si>
+    <t>斗争</t>
+  </si>
+  <si>
+    <t>目的</t>
+  </si>
+  <si>
+    <t>团结</t>
+  </si>
+  <si>
+    <t>内部</t>
+  </si>
+  <si>
+    <t>反革命</t>
+  </si>
+  <si>
+    <t>事物</t>
+  </si>
+  <si>
+    <t>懂得</t>
+  </si>
+  <si>
+    <t>地位</t>
+  </si>
+  <si>
+    <t>地方</t>
+  </si>
+  <si>
+    <t>自由</t>
+  </si>
+  <si>
+    <t>客观</t>
+  </si>
+  <si>
+    <t>调查</t>
+  </si>
+  <si>
+    <t>作风</t>
+  </si>
+  <si>
+    <t>实践</t>
+  </si>
+  <si>
+    <t>阶级</t>
+  </si>
+  <si>
+    <t>组织</t>
+  </si>
+  <si>
+    <t>消灭</t>
+  </si>
+  <si>
+    <t>解决</t>
+  </si>
+  <si>
+    <t>我国</t>
+  </si>
+  <si>
+    <t>建立</t>
+  </si>
+  <si>
+    <t>制度</t>
+  </si>
+  <si>
+    <t>社会</t>
+  </si>
+  <si>
+    <t>条件</t>
+  </si>
+  <si>
+    <t>阶段</t>
+  </si>
+  <si>
+    <t>表现</t>
+  </si>
+  <si>
+    <t>和平</t>
+  </si>
+  <si>
+    <t>工作</t>
+  </si>
+  <si>
+    <t>发生</t>
+  </si>
+  <si>
+    <t>批评</t>
+  </si>
+  <si>
+    <t>原则</t>
+  </si>
+  <si>
+    <t>共产党员</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>时期</t>
+  </si>
+  <si>
+    <t>艺术</t>
+  </si>
+  <si>
+    <t>中国共产党</t>
+  </si>
+  <si>
+    <t>正确</t>
+  </si>
+  <si>
+    <t>农业</t>
+  </si>
+  <si>
+    <t>性质</t>
+  </si>
+  <si>
+    <t>群众</t>
+  </si>
+  <si>
+    <t>关系</t>
+  </si>
+  <si>
+    <t>知识分子</t>
+  </si>
+  <si>
+    <t>马克思列宁主义</t>
+  </si>
+  <si>
+    <t>马克思主义</t>
+  </si>
+  <si>
+    <t>阶级斗争</t>
+  </si>
+  <si>
+    <t>反对</t>
+  </si>
+  <si>
+    <t>两个</t>
+  </si>
+  <si>
+    <t>善于</t>
+  </si>
+  <si>
+    <t>劳动</t>
+  </si>
+  <si>
+    <t>成绩</t>
+  </si>
+  <si>
+    <t>研究</t>
+  </si>
+  <si>
+    <t>积极性</t>
+  </si>
+  <si>
+    <t>一部分</t>
+  </si>
+  <si>
+    <t>理论</t>
+  </si>
+  <si>
+    <t>事情</t>
+  </si>
+  <si>
+    <t>政策</t>
+  </si>
+  <si>
+    <t>农民</t>
+  </si>
+  <si>
+    <t>敌人</t>
+  </si>
+  <si>
+    <t>办法</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>分析</t>
+  </si>
+  <si>
+    <t>态度</t>
+  </si>
+  <si>
+    <t>只能</t>
+  </si>
+  <si>
+    <t>军事</t>
+  </si>
+  <si>
+    <t>缺点</t>
+  </si>
+  <si>
+    <t>党内</t>
+  </si>
+  <si>
+    <t>纪律</t>
+  </si>
+  <si>
+    <t>东西</t>
+  </si>
+  <si>
+    <t>资产阶级</t>
+  </si>
+  <si>
+    <t>修正主义</t>
+  </si>
+  <si>
+    <t>方法</t>
+  </si>
+  <si>
+    <t>战争</t>
+  </si>
+  <si>
+    <t>共产党</t>
+  </si>
+  <si>
+    <t>士兵</t>
+  </si>
+  <si>
+    <t>干部</t>
+  </si>
+  <si>
+    <t>事业</t>
+  </si>
+  <si>
+    <t>力量</t>
+  </si>
+  <si>
+    <t>基础</t>
+  </si>
+  <si>
     <t>军队</t>
   </si>
   <si>
-    <t>作风</t>
+    <t>领导</t>
+  </si>
+  <si>
+    <t>经验</t>
+  </si>
+  <si>
+    <t>党员</t>
+  </si>
+  <si>
+    <t>观点</t>
+  </si>
+  <si>
+    <t>矛盾</t>
+  </si>
+  <si>
+    <t>世界</t>
+  </si>
+  <si>
+    <t>思想</t>
+  </si>
+  <si>
+    <t>共产党人</t>
+  </si>
+  <si>
+    <t>一点</t>
+  </si>
+  <si>
+    <t>工人阶级</t>
+  </si>
+  <si>
+    <t>建设</t>
+  </si>
+  <si>
+    <t>意见</t>
+  </si>
+  <si>
+    <t>参加</t>
+  </si>
+  <si>
+    <t>民主</t>
+  </si>
+  <si>
+    <t>民众</t>
+  </si>
+  <si>
+    <t>打仗</t>
+  </si>
+  <si>
+    <t>出发</t>
+  </si>
+  <si>
+    <t>同志</t>
+  </si>
+  <si>
+    <t>经济</t>
+  </si>
+  <si>
+    <t>学习</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>生产</t>
+  </si>
+  <si>
+    <t>困难</t>
+  </si>
+  <si>
+    <t>服务</t>
+  </si>
+  <si>
+    <t>计划</t>
   </si>
   <si>
     <t>运动</t>
   </si>
   <si>
-    <t>教育</t>
-  </si>
-  <si>
-    <t>过程</t>
-  </si>
-  <si>
-    <t>农民</t>
-  </si>
-  <si>
-    <t>修正主义</t>
-  </si>
-  <si>
-    <t>一种</t>
-  </si>
-  <si>
-    <t>团结</t>
-  </si>
-  <si>
-    <t>一点</t>
-  </si>
-  <si>
-    <t>工人阶级</t>
-  </si>
-  <si>
-    <t>战争</t>
-  </si>
-  <si>
-    <t>地位</t>
-  </si>
-  <si>
-    <t>执行</t>
-  </si>
-  <si>
-    <t>打仗</t>
-  </si>
-  <si>
-    <t>地方</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>失败</t>
-  </si>
-  <si>
-    <t>困难</t>
-  </si>
-  <si>
-    <t>调查</t>
-  </si>
-  <si>
-    <t>破坏</t>
-  </si>
-  <si>
-    <t>党内</t>
-  </si>
-  <si>
-    <t>青年</t>
-  </si>
-  <si>
-    <t>纪律</t>
-  </si>
-  <si>
-    <t>错误</t>
-  </si>
-  <si>
-    <t>我国</t>
-  </si>
-  <si>
-    <t>阶段</t>
-  </si>
-  <si>
-    <t>反革命</t>
-  </si>
-  <si>
-    <t>表现</t>
-  </si>
-  <si>
-    <t>分析</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>群众</t>
-  </si>
-  <si>
-    <t>发生</t>
-  </si>
-  <si>
-    <t>武器</t>
-  </si>
-  <si>
-    <t>政策</t>
-  </si>
-  <si>
-    <t>经验</t>
-  </si>
-  <si>
-    <t>历史</t>
-  </si>
-  <si>
-    <t>东西</t>
-  </si>
-  <si>
-    <t>国家</t>
-  </si>
-  <si>
-    <t>工作</t>
-  </si>
-  <si>
-    <t>出发</t>
-  </si>
-  <si>
-    <t>服务</t>
-  </si>
-  <si>
-    <t>中国共产党</t>
-  </si>
-  <si>
-    <t>力量</t>
-  </si>
-  <si>
-    <t>基础</t>
-  </si>
-  <si>
-    <t>马克思列宁主义</t>
-  </si>
-  <si>
-    <t>胜利</t>
-  </si>
-  <si>
-    <t>事情</t>
-  </si>
-  <si>
-    <t>正确</t>
-  </si>
-  <si>
-    <t>实践</t>
-  </si>
-  <si>
-    <t>消灭</t>
-  </si>
-  <si>
-    <t>敌人</t>
-  </si>
-  <si>
-    <t>之间</t>
-  </si>
-  <si>
-    <t>资本主义</t>
-  </si>
-  <si>
-    <t>解决</t>
-  </si>
-  <si>
-    <t>思想</t>
-  </si>
-  <si>
-    <t>共产党人</t>
-  </si>
-  <si>
-    <t>参加</t>
-  </si>
-  <si>
-    <t>事物</t>
-  </si>
-  <si>
-    <t>共产党</t>
-  </si>
-  <si>
-    <t>态度</t>
-  </si>
-  <si>
-    <t>民众</t>
-  </si>
-  <si>
-    <t>原则</t>
-  </si>
-  <si>
-    <t>积极性</t>
-  </si>
-  <si>
-    <t>时期</t>
-  </si>
-  <si>
-    <t>生产</t>
-  </si>
-  <si>
-    <t>计划</t>
-  </si>
-  <si>
-    <t>艺术</t>
-  </si>
-  <si>
-    <t>理论</t>
-  </si>
-  <si>
-    <t>实行</t>
-  </si>
-  <si>
-    <t>阶级</t>
-  </si>
-  <si>
-    <t>阶级斗争</t>
-  </si>
-  <si>
-    <t>观点</t>
-  </si>
-  <si>
-    <t>矛盾</t>
-  </si>
-  <si>
-    <t>民族</t>
-  </si>
-  <si>
-    <t>时间</t>
-  </si>
-  <si>
-    <t>建立</t>
-  </si>
-  <si>
-    <t>情况</t>
-  </si>
-  <si>
-    <t>发展</t>
-  </si>
-  <si>
-    <t>善于</t>
-  </si>
-  <si>
-    <t>机关</t>
-  </si>
-  <si>
-    <t>士兵</t>
-  </si>
-  <si>
-    <t>自由</t>
-  </si>
-  <si>
-    <t>客观</t>
-  </si>
-  <si>
-    <t>服从</t>
-  </si>
-  <si>
-    <t>马克思主义</t>
-  </si>
-  <si>
-    <t>改造</t>
-  </si>
-  <si>
-    <t>世界</t>
-  </si>
-  <si>
-    <t>解放</t>
-  </si>
-  <si>
-    <t>目的</t>
-  </si>
-  <si>
-    <t>反动派</t>
-  </si>
-  <si>
-    <t>只能</t>
-  </si>
-  <si>
-    <t>军事</t>
-  </si>
-  <si>
-    <t>批评</t>
+    <t>标准</t>
+  </si>
+  <si>
+    <t>政治</t>
   </si>
   <si>
     <t>生活</t>
-  </si>
-  <si>
-    <t>经济</t>
-  </si>
-  <si>
-    <t>知识分子</t>
-  </si>
-  <si>
-    <t>资产阶级</t>
-  </si>
-  <si>
-    <t>制度</t>
-  </si>
-  <si>
-    <t>内部</t>
-  </si>
-  <si>
-    <t>和平</t>
-  </si>
-  <si>
-    <t>劳动</t>
-  </si>
-  <si>
-    <t>一部分</t>
-  </si>
-  <si>
-    <t>干部</t>
-  </si>
-  <si>
-    <t>事业</t>
-  </si>
-  <si>
-    <t>性质</t>
-  </si>
-  <si>
-    <t>政治</t>
-  </si>
-  <si>
-    <t>关系</t>
-  </si>
-  <si>
-    <t>成绩</t>
-  </si>
-  <si>
-    <t>领导</t>
-  </si>
-  <si>
-    <t>党员</t>
-  </si>
-  <si>
-    <t>组织</t>
-  </si>
-  <si>
-    <t>办法</t>
-  </si>
-  <si>
-    <t>反对</t>
-  </si>
-  <si>
-    <t>无产阶级</t>
-  </si>
-  <si>
-    <t>斗争</t>
-  </si>
-  <si>
-    <t>社会</t>
-  </si>
-  <si>
-    <t>农业</t>
-  </si>
-  <si>
-    <t>条件</t>
-  </si>
-  <si>
-    <t>方法</t>
-  </si>
-  <si>
-    <t>建设</t>
-  </si>
-  <si>
-    <t>标准</t>
-  </si>
-  <si>
-    <t>意见</t>
-  </si>
-  <si>
-    <t>民主</t>
-  </si>
-  <si>
-    <t>精神</t>
-  </si>
-  <si>
-    <t>全世界</t>
-  </si>
-  <si>
-    <t>利益</t>
-  </si>
-  <si>
-    <t>研究</t>
-  </si>
-  <si>
-    <t>同志</t>
-  </si>
-  <si>
-    <t>共产党员</t>
-  </si>
-  <si>
-    <t>缺点</t>
-  </si>
-  <si>
-    <t>两个</t>
-  </si>
-  <si>
-    <t>懂得</t>
-  </si>
-  <si>
-    <t>学习</t>
   </si>
 </sst>
 </file>
@@ -827,7 +827,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>0.004818503051718599</v>
+        <v>0.00329264375200771</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -841,7 +841,7 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>0.00104400899453903</v>
+        <v>0.00305171859942178</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -855,7 +855,7 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>0.002489559910054609</v>
+        <v>0.00128493414712496</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -869,7 +869,7 @@
         <v>7</v>
       </c>
       <c r="D6">
-        <v>0.00136524253132027</v>
+        <v>0.00232894314166399</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -883,7 +883,7 @@
         <v>8</v>
       </c>
       <c r="D7">
-        <v>0.00128493414712496</v>
+        <v>0.0024092515258593</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -897,7 +897,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>0.00208801798907806</v>
+        <v>0.00120462576292965</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -911,7 +911,7 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <v>0.00112431737873434</v>
+        <v>0.00208801798907806</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -925,7 +925,7 @@
         <v>11</v>
       </c>
       <c r="D10">
-        <v>0.00224863475746868</v>
+        <v>0.00104400899453903</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -939,7 +939,7 @@
         <v>12</v>
       </c>
       <c r="D11">
-        <v>0.004336652746546739</v>
+        <v>0.00265017667844523</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -953,7 +953,7 @@
         <v>13</v>
       </c>
       <c r="D12">
-        <v>0.00168647606810151</v>
+        <v>0.00120462576292965</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -967,7 +967,7 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>0.0016061676839062</v>
+        <v>0.00128493414712496</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -975,13 +975,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14">
-        <v>0.005862512046257629</v>
+        <v>0.00232894314166399</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -989,13 +989,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="D15">
-        <v>0.00128493414712496</v>
+        <v>0.00168647606810151</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1003,13 +1003,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16">
-        <v>0.00120462576292965</v>
+        <v>0.003854802441374879</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1017,13 +1017,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
       <c r="D17">
-        <v>0.00104400899453903</v>
+        <v>0.00409572759396081</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1031,13 +1031,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
       </c>
       <c r="D18">
-        <v>0.00168647606810151</v>
+        <v>0.00232894314166399</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1045,13 +1045,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
       </c>
       <c r="D19">
-        <v>0.00104400899453903</v>
+        <v>0.00136524253132027</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1059,7 +1059,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
@@ -1073,13 +1073,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
       <c r="D21">
-        <v>0.00208801798907806</v>
+        <v>0.00120462576292965</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1087,13 +1087,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
       </c>
       <c r="D22">
-        <v>0.00144555091551558</v>
+        <v>0.00104400899453903</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1101,13 +1101,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
       </c>
       <c r="D23">
-        <v>0.00104400899453903</v>
+        <v>0.00120462576292965</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1115,7 +1115,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
@@ -1129,13 +1129,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
       </c>
       <c r="D25">
-        <v>0.00128493414712496</v>
+        <v>0.00232894314166399</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1143,13 +1143,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
       </c>
       <c r="D26">
-        <v>0.00144555091551558</v>
+        <v>0.00457757789913267</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1157,13 +1157,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
       </c>
       <c r="D27">
-        <v>0.00457757789913267</v>
+        <v>0.00305171859942178</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1171,13 +1171,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
       </c>
       <c r="D28">
-        <v>0.00200770960488275</v>
+        <v>0.00305171859942178</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1185,13 +1185,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
         <v>30</v>
       </c>
       <c r="D29">
-        <v>0.00104400899453903</v>
+        <v>0.00224863475746868</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1199,13 +1199,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
         <v>31</v>
       </c>
       <c r="D30">
-        <v>0.00112431737873434</v>
+        <v>0.00530035335689046</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1213,13 +1213,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
       </c>
       <c r="D31">
-        <v>0.00112431737873434</v>
+        <v>0.00144555091551558</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1227,13 +1227,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
         <v>33</v>
       </c>
       <c r="D32">
-        <v>0.0016061676839062</v>
+        <v>0.004336652746546739</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1241,13 +1241,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
         <v>34</v>
       </c>
       <c r="D33">
-        <v>0.00104400899453903</v>
+        <v>0.00305171859942178</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1255,13 +1255,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" t="s">
         <v>35</v>
       </c>
       <c r="D34">
-        <v>0.01068101509797623</v>
+        <v>0.00112431737873434</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1269,13 +1269,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
         <v>36</v>
       </c>
       <c r="D35">
-        <v>0.00112431737873434</v>
+        <v>0.00289110183103116</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1289,7 +1289,7 @@
         <v>37</v>
       </c>
       <c r="D36">
-        <v>0.00120462576292965</v>
+        <v>0.00176678445229682</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1303,7 +1303,7 @@
         <v>38</v>
       </c>
       <c r="D37">
-        <v>0.00273048506264054</v>
+        <v>0.00128493414712496</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1317,7 +1317,7 @@
         <v>39</v>
       </c>
       <c r="D38">
-        <v>0.00152585929971089</v>
+        <v>0.00168647606810151</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1331,7 +1331,7 @@
         <v>40</v>
       </c>
       <c r="D39">
-        <v>0.00232894314166399</v>
+        <v>0.00120462576292965</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1345,7 +1345,7 @@
         <v>41</v>
       </c>
       <c r="D40">
-        <v>0.00192740122068744</v>
+        <v>0.00120462576292965</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1359,7 +1359,7 @@
         <v>42</v>
       </c>
       <c r="D41">
-        <v>0.00409572759396081</v>
+        <v>0.00144555091551558</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1367,13 +1367,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42" t="s">
         <v>43</v>
       </c>
       <c r="D42">
-        <v>0.01092194025056216</v>
+        <v>0.00104400899453903</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1381,13 +1381,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43" t="s">
         <v>44</v>
       </c>
       <c r="D43">
-        <v>0.00120462576292965</v>
+        <v>0.00192740122068744</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1395,13 +1395,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44" t="s">
         <v>45</v>
       </c>
       <c r="D44">
-        <v>0.00104400899453903</v>
+        <v>0.00337295213620302</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1415,7 +1415,7 @@
         <v>46</v>
       </c>
       <c r="D45">
-        <v>0.00104400899453903</v>
+        <v>0.00256986829424992</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1429,7 +1429,7 @@
         <v>47</v>
       </c>
       <c r="D46">
-        <v>0.00224863475746868</v>
+        <v>0.00337295213620302</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1443,7 +1443,7 @@
         <v>48</v>
       </c>
       <c r="D47">
-        <v>0.00136524253132027</v>
+        <v>0.00393511082557019</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1457,7 +1457,7 @@
         <v>49</v>
       </c>
       <c r="D48">
-        <v>0.0016061676839062</v>
+        <v>0.00200770960488275</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1471,7 +1471,7 @@
         <v>50</v>
       </c>
       <c r="D49">
-        <v>0.00329264375200771</v>
+        <v>0.0016061676839062</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1485,7 +1485,7 @@
         <v>51</v>
       </c>
       <c r="D50">
-        <v>0.00176678445229682</v>
+        <v>0.00208801798907806</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1499,7 +1499,7 @@
         <v>52</v>
       </c>
       <c r="D51">
-        <v>0.004176035978156119</v>
+        <v>0.00409572759396081</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1513,7 +1513,7 @@
         <v>53</v>
       </c>
       <c r="D52">
-        <v>0.00192740122068744</v>
+        <v>0.00152585929971089</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1527,7 +1527,7 @@
         <v>54</v>
       </c>
       <c r="D53">
-        <v>0.00337295213620302</v>
+        <v>0.00104400899453903</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1541,7 +1541,7 @@
         <v>55</v>
       </c>
       <c r="D54">
-        <v>0.006424670735624799</v>
+        <v>0.00112431737873434</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1555,7 +1555,7 @@
         <v>56</v>
       </c>
       <c r="D55">
-        <v>0.00305171859942178</v>
+        <v>0.00112431737873434</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1569,7 +1569,7 @@
         <v>57</v>
       </c>
       <c r="D56">
-        <v>0.00168647606810151</v>
+        <v>0.01092194025056216</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1583,7 +1583,7 @@
         <v>58</v>
       </c>
       <c r="D57">
-        <v>0.00393511082557019</v>
+        <v>0.00112431737873434</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1597,7 +1597,7 @@
         <v>59</v>
       </c>
       <c r="D58">
-        <v>0.004497269514937359</v>
+        <v>0.00305171859942178</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1611,7 +1611,7 @@
         <v>60</v>
       </c>
       <c r="D59">
-        <v>0.00112431737873434</v>
+        <v>0.00273048506264054</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1625,7 +1625,7 @@
         <v>61</v>
       </c>
       <c r="D60">
-        <v>0.00136524253132027</v>
+        <v>0.00256986829424992</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1639,7 +1639,7 @@
         <v>62</v>
       </c>
       <c r="D61">
-        <v>0.00289110183103116</v>
+        <v>0.00104400899453903</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1667,7 +1667,7 @@
         <v>64</v>
       </c>
       <c r="D63">
-        <v>0.00232894314166399</v>
+        <v>0.00176678445229682</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1675,7 +1675,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C64" t="s">
         <v>65</v>
@@ -1689,13 +1689,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C65" t="s">
         <v>66</v>
       </c>
       <c r="D65">
-        <v>0.00273048506264054</v>
+        <v>0.004176035978156119</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1703,13 +1703,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C66" t="s">
         <v>67</v>
       </c>
       <c r="D66">
-        <v>0.00144555091551558</v>
+        <v>0.00128493414712496</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1717,13 +1717,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
       </c>
       <c r="D67">
-        <v>0.0016061676839062</v>
+        <v>0.00112431737873434</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1731,13 +1731,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C68" t="s">
         <v>69</v>
       </c>
       <c r="D68">
-        <v>0.00297141021522647</v>
+        <v>0.01068101509797623</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1745,13 +1745,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C69" t="s">
         <v>70</v>
       </c>
       <c r="D69">
-        <v>0.00104400899453903</v>
+        <v>0.00152585929971089</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1759,13 +1759,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C70" t="s">
         <v>71</v>
       </c>
       <c r="D70">
-        <v>0.00176678445229682</v>
+        <v>0.00120462576292965</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1773,13 +1773,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>72</v>
       </c>
       <c r="D71">
-        <v>0.00224863475746868</v>
+        <v>0.0016061676839062</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1787,13 +1787,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>73</v>
       </c>
       <c r="D72">
-        <v>0.00305171859942178</v>
+        <v>0.00289110183103116</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1801,13 +1801,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>74</v>
       </c>
       <c r="D73">
-        <v>0.00337295213620302</v>
+        <v>0.00128493414712496</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1815,13 +1815,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>75</v>
       </c>
       <c r="D74">
-        <v>0.00128493414712496</v>
+        <v>0.0032123353678124</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1829,7 +1829,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>76</v>
@@ -1843,13 +1843,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>77</v>
       </c>
       <c r="D76">
-        <v>0.006585287504015419</v>
+        <v>0.00184709283649213</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1857,13 +1857,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>78</v>
       </c>
       <c r="D77">
-        <v>0.00232894314166399</v>
+        <v>0.00208801798907806</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1871,13 +1871,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>79</v>
       </c>
       <c r="D78">
-        <v>0.00120462576292965</v>
+        <v>0.00152585929971089</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1885,13 +1885,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>80</v>
       </c>
       <c r="D79">
-        <v>0.0016061676839062</v>
+        <v>0.00120462576292965</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1899,13 +1899,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>81</v>
       </c>
       <c r="D80">
-        <v>0.00305171859942178</v>
+        <v>0.00144555091551558</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1913,13 +1913,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>82</v>
       </c>
       <c r="D81">
-        <v>0.003854802441374879</v>
+        <v>0.00104400899453903</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1927,13 +1927,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>83</v>
       </c>
       <c r="D82">
-        <v>0.00184709283649213</v>
+        <v>0.00224863475746868</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1941,13 +1941,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>84</v>
       </c>
       <c r="D83">
-        <v>0.00152585929971089</v>
+        <v>0.00176678445229682</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1955,13 +1955,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
         <v>85</v>
       </c>
       <c r="D84">
-        <v>0.00128493414712496</v>
+        <v>0.00273048506264054</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1969,13 +1969,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>86</v>
       </c>
       <c r="D85">
-        <v>0.00120462576292965</v>
+        <v>0.00208801798907806</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1983,13 +1983,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>87</v>
       </c>
       <c r="D86">
-        <v>0.00120462576292965</v>
+        <v>0.006424670735624799</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1997,13 +1997,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>88</v>
       </c>
       <c r="D87">
-        <v>0.00120462576292965</v>
+        <v>0.00168647606810151</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2011,13 +2011,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>89</v>
       </c>
       <c r="D88">
-        <v>0.00289110183103116</v>
+        <v>0.00120462576292965</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2025,13 +2025,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
         <v>90</v>
       </c>
       <c r="D89">
-        <v>0.0024092515258593</v>
+        <v>0.0016061676839062</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2039,13 +2039,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>91</v>
       </c>
       <c r="D90">
-        <v>0.00265017667844523</v>
+        <v>0.00232894314166399</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2053,13 +2053,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>92</v>
       </c>
       <c r="D91">
-        <v>0.00120462576292965</v>
+        <v>0.00104400899453903</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2067,13 +2067,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>93</v>
       </c>
       <c r="D92">
-        <v>0.00144555091551558</v>
+        <v>0.00104400899453903</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2081,13 +2081,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>94</v>
       </c>
       <c r="D93">
-        <v>0.00232894314166399</v>
+        <v>0.00128493414712496</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2095,13 +2095,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>95</v>
       </c>
       <c r="D94">
-        <v>0.00104400899453903</v>
+        <v>0.00136524253132027</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2109,13 +2109,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>96</v>
       </c>
       <c r="D95">
-        <v>0.00104400899453903</v>
+        <v>0.00144555091551558</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2123,13 +2123,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>97</v>
       </c>
       <c r="D96">
-        <v>0.00305171859942178</v>
+        <v>0.00192740122068744</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2137,13 +2137,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>98</v>
       </c>
       <c r="D97">
-        <v>0.00232894314166399</v>
+        <v>0.00329264375200771</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2151,13 +2151,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>99</v>
       </c>
       <c r="D98">
-        <v>0.00128493414712496</v>
+        <v>0.00112431737873434</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2165,13 +2165,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>100</v>
       </c>
       <c r="D99">
-        <v>0.00120462576292965</v>
+        <v>0.0056215868936717</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2179,13 +2179,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>101</v>
       </c>
       <c r="D100">
-        <v>0.00329264375200771</v>
+        <v>0.005862512046257629</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2193,13 +2193,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>102</v>
       </c>
       <c r="D101">
-        <v>0.00208801798907806</v>
+        <v>0.0016061676839062</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2207,13 +2207,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>103</v>
       </c>
       <c r="D102">
-        <v>0.00305171859942178</v>
+        <v>0.00128493414712496</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2221,13 +2221,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>104</v>
       </c>
       <c r="D103">
-        <v>0.00112431737873434</v>
+        <v>0.003774494057179569</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2235,13 +2235,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>105</v>
       </c>
       <c r="D104">
-        <v>0.00208801798907806</v>
+        <v>0.00216832637327337</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2249,13 +2249,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
         <v>106</v>
       </c>
       <c r="D105">
-        <v>0.00104400899453903</v>
+        <v>0.00224863475746868</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2263,13 +2263,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>107</v>
       </c>
       <c r="D106">
-        <v>0.003774494057179569</v>
+        <v>0.00136524253132027</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2277,13 +2277,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>108</v>
       </c>
       <c r="D107">
-        <v>0.00216832637327337</v>
+        <v>0.004818503051718599</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2291,13 +2291,13 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>109</v>
       </c>
       <c r="D108">
-        <v>0.00112431737873434</v>
+        <v>0.005059428204304529</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2305,13 +2305,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>110</v>
       </c>
       <c r="D109">
-        <v>0.006585287504015419</v>
+        <v>0.00152585929971089</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2319,13 +2319,13 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>111</v>
       </c>
       <c r="D110">
-        <v>0.00152585929971089</v>
+        <v>0.00112431737873434</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2333,13 +2333,13 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>112</v>
       </c>
       <c r="D111">
-        <v>0.00152585929971089</v>
+        <v>0.00144555091551558</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2353,7 +2353,7 @@
         <v>113</v>
       </c>
       <c r="D112">
-        <v>0.005059428204304529</v>
+        <v>0.006585287504015419</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2367,7 +2367,7 @@
         <v>114</v>
       </c>
       <c r="D113">
-        <v>0.00112431737873434</v>
+        <v>0.00265017667844523</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2381,7 +2381,7 @@
         <v>115</v>
       </c>
       <c r="D114">
-        <v>0.00256986829424992</v>
+        <v>0.004497269514937359</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2395,7 +2395,7 @@
         <v>116</v>
       </c>
       <c r="D115">
-        <v>0.00168647606810151</v>
+        <v>0.00112431737873434</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2409,7 +2409,7 @@
         <v>117</v>
       </c>
       <c r="D116">
-        <v>0.0032123353678124</v>
+        <v>0.00168647606810151</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2423,7 +2423,7 @@
         <v>118</v>
       </c>
       <c r="D117">
-        <v>0.00232894314166399</v>
+        <v>0.0016061676839062</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2437,7 +2437,7 @@
         <v>119</v>
       </c>
       <c r="D118">
-        <v>0.00530035335689046</v>
+        <v>0.00184709283649213</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2451,7 +2451,7 @@
         <v>120</v>
       </c>
       <c r="D119">
-        <v>0.00409572759396081</v>
+        <v>0.00208801798907806</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2465,7 +2465,7 @@
         <v>121</v>
       </c>
       <c r="D120">
-        <v>0.00128493414712496</v>
+        <v>0.00136524253132027</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2479,7 +2479,7 @@
         <v>122</v>
       </c>
       <c r="D121">
-        <v>0.00152585929971089</v>
+        <v>0.00232894314166399</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2493,7 +2493,7 @@
         <v>123</v>
       </c>
       <c r="D122">
-        <v>0.0056215868936717</v>
+        <v>0.00104400899453903</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2507,7 +2507,7 @@
         <v>124</v>
       </c>
       <c r="D123">
-        <v>0.00184709283649213</v>
+        <v>0.00104400899453903</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2521,7 +2521,7 @@
         <v>125</v>
       </c>
       <c r="D124">
-        <v>0.00136524253132027</v>
+        <v>0.00120462576292965</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2535,7 +2535,7 @@
         <v>126</v>
       </c>
       <c r="D125">
-        <v>0.00208801798907806</v>
+        <v>0.004015419209765499</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2549,7 +2549,7 @@
         <v>127</v>
       </c>
       <c r="D126">
-        <v>0.00232894314166399</v>
+        <v>0.00128493414712496</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2563,7 +2563,7 @@
         <v>128</v>
       </c>
       <c r="D127">
-        <v>0.00208801798907806</v>
+        <v>0.00281079344683585</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2577,7 +2577,7 @@
         <v>129</v>
       </c>
       <c r="D128">
-        <v>0.00136524253132027</v>
+        <v>0.00152585929971089</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2591,7 +2591,7 @@
         <v>130</v>
       </c>
       <c r="D129">
-        <v>0.00265017667844523</v>
+        <v>0.00297141021522647</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2605,7 +2605,7 @@
         <v>131</v>
       </c>
       <c r="D130">
-        <v>0.00120462576292965</v>
+        <v>0.00208801798907806</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2619,7 +2619,7 @@
         <v>132</v>
       </c>
       <c r="D131">
-        <v>0.004015419209765499</v>
+        <v>0.00104400899453903</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2633,7 +2633,7 @@
         <v>133</v>
       </c>
       <c r="D132">
-        <v>0.00256986829424992</v>
+        <v>0.00104400899453903</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2641,13 +2641,13 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
         <v>134</v>
       </c>
       <c r="D133">
-        <v>0.00128493414712496</v>
+        <v>0.002489559910054609</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2661,7 +2661,7 @@
         <v>135</v>
       </c>
       <c r="D134">
-        <v>0.00144555091551558</v>
+        <v>0.00136524253132027</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2675,7 +2675,7 @@
         <v>136</v>
       </c>
       <c r="D135">
-        <v>0.00176678445229682</v>
+        <v>0.006585287504015419</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2689,7 +2689,7 @@
         <v>137</v>
       </c>
       <c r="D136">
-        <v>0.00281079344683585</v>
+        <v>0.00232894314166399</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>class</t>
   </si>
@@ -25,217 +25,223 @@
     <t>freq</t>
   </si>
   <si>
+    <t>三房两厅</t>
+  </si>
+  <si>
+    <t>不输</t>
+  </si>
+  <si>
+    <t>shengzhi</t>
+  </si>
+  <si>
+    <t>三面</t>
+  </si>
+  <si>
+    <t>一中</t>
+  </si>
+  <si>
+    <t>一手</t>
+  </si>
+  <si>
+    <t>万家</t>
+  </si>
+  <si>
+    <t>万卖</t>
+  </si>
+  <si>
+    <t>一种</t>
+  </si>
+  <si>
+    <t>不动产</t>
+  </si>
+  <si>
+    <t>之隔</t>
+  </si>
+  <si>
+    <t>两层</t>
+  </si>
+  <si>
+    <t>专家</t>
+  </si>
+  <si>
+    <t>一站式</t>
+  </si>
+  <si>
+    <t>主理</t>
+  </si>
+  <si>
+    <t>世界</t>
+  </si>
+  <si>
+    <t>个人所得税</t>
+  </si>
+  <si>
+    <t>两成</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>不见不散</t>
+  </si>
+  <si>
+    <t>万快</t>
+  </si>
+  <si>
+    <t>万豪</t>
+  </si>
+  <si>
+    <t>万叠</t>
+  </si>
+  <si>
+    <t>三小旁</t>
+  </si>
+  <si>
+    <t>主轴</t>
+  </si>
+  <si>
+    <t>不断更新</t>
+  </si>
+  <si>
+    <t>不敢肯定</t>
+  </si>
+  <si>
+    <t>一梯</t>
+  </si>
+  <si>
+    <t>一房</t>
+  </si>
+  <si>
+    <t>一点点</t>
+  </si>
+  <si>
+    <t>三房</t>
+  </si>
+  <si>
+    <t>主卧带</t>
+  </si>
+  <si>
+    <t>三代同堂</t>
+  </si>
+  <si>
+    <t>下车</t>
+  </si>
+  <si>
+    <t>万抵</t>
+  </si>
+  <si>
+    <t>一家人</t>
+  </si>
+  <si>
+    <t>万象</t>
+  </si>
+  <si>
+    <t>万起</t>
+  </si>
+  <si>
+    <t>两梯</t>
+  </si>
+  <si>
+    <t>万家灯火</t>
+  </si>
+  <si>
+    <t>万带</t>
+  </si>
+  <si>
+    <t>三层</t>
+  </si>
+  <si>
+    <t>三小</t>
+  </si>
+  <si>
+    <t>一户</t>
+  </si>
+  <si>
+    <t>一流</t>
+  </si>
+  <si>
+    <t>不二</t>
+  </si>
+  <si>
+    <t>不想</t>
+  </si>
+  <si>
     <t>一二</t>
   </si>
   <si>
-    <t>about</t>
-  </si>
-  <si>
-    <t>一种</t>
-  </si>
-  <si>
-    <t>三代同堂</t>
-  </si>
-  <si>
-    <t>一中</t>
+    <t>两卧</t>
+  </si>
+  <si>
+    <t>下巴</t>
+  </si>
+  <si>
+    <t>中国工商银行</t>
+  </si>
+  <si>
+    <t>两房</t>
+  </si>
+  <si>
+    <t>主卧</t>
+  </si>
+  <si>
+    <t>上墙</t>
+  </si>
+  <si>
+    <t>东头</t>
+  </si>
+  <si>
+    <t>一间</t>
+  </si>
+  <si>
+    <t>下楼</t>
+  </si>
+  <si>
+    <t>业绩</t>
+  </si>
+  <si>
+    <t>一家</t>
+  </si>
+  <si>
+    <t>一层</t>
+  </si>
+  <si>
+    <t>一套</t>
+  </si>
+  <si>
+    <t>一座</t>
+  </si>
+  <si>
+    <t>不靠</t>
+  </si>
+  <si>
+    <t>万达</t>
+  </si>
+  <si>
+    <t>一小</t>
+  </si>
+  <si>
+    <t>一厨</t>
+  </si>
+  <si>
+    <t>三中</t>
   </si>
   <si>
     <t>一楼</t>
   </si>
   <si>
-    <t>一家人</t>
-  </si>
-  <si>
-    <t>万快</t>
-  </si>
-  <si>
-    <t>一厨</t>
-  </si>
-  <si>
-    <t>zi</t>
-  </si>
-  <si>
-    <t>一点点</t>
-  </si>
-  <si>
-    <t>世纪</t>
-  </si>
-  <si>
-    <t>一套</t>
-  </si>
-  <si>
-    <t>一层</t>
-  </si>
-  <si>
-    <t>一座</t>
-  </si>
-  <si>
-    <t>东头</t>
-  </si>
-  <si>
-    <t>万起</t>
-  </si>
-  <si>
-    <t>万抵</t>
-  </si>
-  <si>
-    <t>loft</t>
-  </si>
-  <si>
-    <t>中国工商银行</t>
-  </si>
-  <si>
-    <t>万卖</t>
-  </si>
-  <si>
-    <t>万象</t>
-  </si>
-  <si>
-    <t>两梯</t>
-  </si>
-  <si>
-    <t>个个</t>
-  </si>
-  <si>
-    <t>一梯</t>
-  </si>
-  <si>
-    <t>三层</t>
-  </si>
-  <si>
-    <t>万带</t>
-  </si>
-  <si>
-    <t>两卧</t>
-  </si>
-  <si>
-    <t>万家灯火</t>
-  </si>
-  <si>
-    <t>一间</t>
-  </si>
-  <si>
-    <t>中国银行</t>
+    <t>万科</t>
   </si>
   <si>
     <t>三口</t>
   </si>
   <si>
+    <t>中式</t>
+  </si>
+  <si>
+    <t>业是</t>
+  </si>
+  <si>
     <t>两卫</t>
-  </si>
-  <si>
-    <t>万达</t>
-  </si>
-  <si>
-    <t>三中</t>
-  </si>
-  <si>
-    <t>下车</t>
-  </si>
-  <si>
-    <t>东边</t>
-  </si>
-  <si>
-    <t>专业</t>
-  </si>
-  <si>
-    <t>下楼</t>
-  </si>
-  <si>
-    <t>万豪</t>
-  </si>
-  <si>
-    <t>三房</t>
-  </si>
-  <si>
-    <t>万科</t>
-  </si>
-  <si>
-    <t>一房</t>
-  </si>
-  <si>
-    <t>一手</t>
-  </si>
-  <si>
-    <t>不靠</t>
-  </si>
-  <si>
-    <t>不想</t>
-  </si>
-  <si>
-    <t>一站式</t>
-  </si>
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
-    <t>一家</t>
-  </si>
-  <si>
-    <t>中医院</t>
-  </si>
-  <si>
-    <t>上墙</t>
-  </si>
-  <si>
-    <t>三面</t>
-  </si>
-  <si>
-    <t>下巴</t>
-  </si>
-  <si>
-    <t>三房两厅</t>
-  </si>
-  <si>
-    <t>不二</t>
-  </si>
-  <si>
-    <t>世界</t>
-  </si>
-  <si>
-    <t>me</t>
-  </si>
-  <si>
-    <t>dl</t>
-  </si>
-  <si>
-    <t>shengzhi</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>三小</t>
-  </si>
-  <si>
-    <t>三室</t>
-  </si>
-  <si>
-    <t>一小</t>
-  </si>
-  <si>
-    <t>一户</t>
-  </si>
-  <si>
-    <t>三小旁</t>
-  </si>
-  <si>
-    <t>个人所得税</t>
-  </si>
-  <si>
-    <t>主卧</t>
-  </si>
-  <si>
-    <t>万家</t>
-  </si>
-  <si>
-    <t>万叠</t>
-  </si>
-  <si>
-    <t>一流</t>
-  </si>
-  <si>
-    <t>不断更新</t>
   </si>
 </sst>
 </file>
@@ -593,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>0.0001638538960687846</v>
+        <v>0.0003277077921375691</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -635,7 +641,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.0001638538960687846</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -663,7 +669,7 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>0.0001638538960687846</v>
+        <v>0.0006554155842751383</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -691,7 +697,7 @@
         <v>8</v>
       </c>
       <c r="D7">
-        <v>0.0004915616882063536</v>
+        <v>0.0008192694803439228</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -705,7 +711,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>0.0001638538960687846</v>
+        <v>0.0003277077921375691</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -719,7 +725,7 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <v>0.0001638538960687846</v>
+        <v>0.0003277077921375691</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -747,7 +753,7 @@
         <v>12</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.0001638538960687846</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -755,7 +761,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -769,13 +775,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13">
-        <v>0.001638538960687846</v>
+        <v>0.0003277077921375691</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -783,7 +789,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -797,13 +803,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="D15">
-        <v>0.0008192694803439228</v>
+        <v>0.0003277077921375691</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -811,7 +817,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -825,7 +831,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
@@ -839,13 +845,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
       </c>
       <c r="D18">
-        <v>0.001146977272481492</v>
+        <v>0.0003277077921375691</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -853,7 +859,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
@@ -873,7 +879,7 @@
         <v>21</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.0003277077921375691</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -887,7 +893,7 @@
         <v>22</v>
       </c>
       <c r="D21">
-        <v>0.0001638538960687846</v>
+        <v>0.0004915616882063536</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -895,13 +901,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
       </c>
       <c r="D22">
-        <v>0.0003277077921375691</v>
+        <v>0.0001638538960687846</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -909,13 +915,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
       </c>
       <c r="D23">
-        <v>0.0001638538960687846</v>
+        <v>0.0003277077921375691</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -923,13 +929,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
       </c>
       <c r="D24">
-        <v>0.0009831233764127072</v>
+        <v>0.0001638538960687846</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -937,13 +943,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
       </c>
       <c r="D25">
-        <v>0.0001638538960687846</v>
+        <v>0.0003277077921375691</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1013,7 +1019,7 @@
         <v>31</v>
       </c>
       <c r="D30">
-        <v>0.0001638538960687846</v>
+        <v>0.0003277077921375691</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1035,13 +1041,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
         <v>33</v>
       </c>
       <c r="D32">
-        <v>0.0003277077921375691</v>
+        <v>0.006718009738820167</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1049,13 +1055,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
         <v>34</v>
       </c>
       <c r="D33">
-        <v>0.0001638538960687846</v>
+        <v>0.0004915616882063536</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1063,13 +1069,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" t="s">
         <v>35</v>
       </c>
       <c r="D34">
-        <v>0.0008192694803439228</v>
+        <v>0.0001638538960687846</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1077,7 +1083,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
         <v>36</v>
@@ -1091,7 +1097,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
@@ -1105,13 +1111,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37" t="s">
         <v>38</v>
       </c>
       <c r="D37">
-        <v>0.0004915616882063536</v>
+        <v>0.0001638538960687846</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1119,7 +1125,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38" t="s">
         <v>39</v>
@@ -1133,13 +1139,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
         <v>40</v>
       </c>
       <c r="D39">
-        <v>0.001310831168550277</v>
+        <v>0.001146977272481492</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1147,13 +1153,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
         <v>41</v>
       </c>
       <c r="D40">
-        <v>0.0001638538960687846</v>
+        <v>0.0009831233764127072</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1161,13 +1167,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41" t="s">
         <v>42</v>
       </c>
       <c r="D41">
-        <v>0.0003277077921375691</v>
+        <v>0.0001638538960687846</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1175,13 +1181,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42" t="s">
         <v>43</v>
       </c>
       <c r="D42">
-        <v>0.006718009738820167</v>
+        <v>0.0001638538960687846</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1189,13 +1195,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C43" t="s">
         <v>44</v>
       </c>
       <c r="D43">
-        <v>0.0009831233764127072</v>
+        <v>0.0001638538960687846</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1203,13 +1209,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C44" t="s">
         <v>45</v>
       </c>
       <c r="D44">
-        <v>0.0003277077921375691</v>
+        <v>0.001146977272481492</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1217,13 +1223,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C45" t="s">
         <v>46</v>
       </c>
       <c r="D45">
-        <v>0.0008192694803439228</v>
+        <v>0.0001638538960687846</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1231,13 +1237,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
         <v>47</v>
       </c>
       <c r="D46">
-        <v>0.0003277077921375691</v>
+        <v>0.0001638538960687846</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1245,7 +1251,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C47" t="s">
         <v>48</v>
@@ -1259,13 +1265,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C48" t="s">
         <v>49</v>
       </c>
       <c r="D48">
-        <v>0.0003277077921375691</v>
+        <v>0.0001638538960687846</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1273,13 +1279,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C49" t="s">
         <v>50</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.0001638538960687846</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1287,7 +1293,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C50" t="s">
         <v>51</v>
@@ -1301,13 +1307,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C51" t="s">
         <v>52</v>
       </c>
       <c r="D51">
-        <v>0.0004915616882063536</v>
+        <v>0.0001638538960687846</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1315,7 +1321,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C52" t="s">
         <v>53</v>
@@ -1329,13 +1335,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C53" t="s">
         <v>54</v>
       </c>
       <c r="D53">
-        <v>0.0006554155842751383</v>
+        <v>0.0009831233764127072</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1343,13 +1349,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C54" t="s">
         <v>55</v>
       </c>
       <c r="D54">
-        <v>0.0001638538960687846</v>
+        <v>0.004260201297788398</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1357,13 +1363,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C55" t="s">
         <v>56</v>
       </c>
       <c r="D55">
-        <v>0.0003277077921375691</v>
+        <v>0.0001638538960687846</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1371,7 +1377,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C56" t="s">
         <v>57</v>
@@ -1385,7 +1391,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C57" t="s">
         <v>58</v>
@@ -1399,13 +1405,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C58" t="s">
         <v>59</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>0.0001638538960687846</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1413,13 +1419,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C59" t="s">
         <v>60</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>0.0004915616882063536</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1427,7 +1433,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>61</v>
@@ -1441,13 +1447,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
         <v>62</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>0.0008192694803439228</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1455,13 +1461,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
         <v>63</v>
       </c>
       <c r="D62">
-        <v>0.001146977272481492</v>
+        <v>0.0001638538960687846</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1469,7 +1475,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>64</v>
@@ -1483,13 +1489,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>65</v>
       </c>
       <c r="D64">
-        <v>0.0001638538960687846</v>
+        <v>0.0003277077921375691</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1497,13 +1503,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>66</v>
       </c>
       <c r="D65">
-        <v>0.0001638538960687846</v>
+        <v>0.0004915616882063536</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1511,13 +1517,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>67</v>
       </c>
       <c r="D66">
-        <v>0.0003277077921375691</v>
+        <v>0.0001638538960687846</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1525,13 +1531,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
       </c>
       <c r="D67">
-        <v>0.0003277077921375691</v>
+        <v>0.0001638538960687846</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1539,13 +1545,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>69</v>
       </c>
       <c r="D68">
-        <v>0.004260201297788398</v>
+        <v>0.0001638538960687846</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1553,13 +1559,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>70</v>
       </c>
       <c r="D69">
-        <v>0.0003277077921375691</v>
+        <v>0.0004915616882063536</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1567,13 +1573,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>71</v>
       </c>
       <c r="D70">
-        <v>0.0001638538960687846</v>
+        <v>0.0009831233764127072</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1581,7 +1587,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>72</v>
@@ -1602,6 +1608,34 @@
       </c>
       <c r="D72">
         <v>0.0001638538960687846</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>74</v>
+      </c>
+      <c r="D73">
+        <v>0.0001638538960687846</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>75</v>
+      </c>
+      <c r="D74">
+        <v>0.0008192694803439228</v>
       </c>
     </row>
   </sheetData>
